--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_170.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_170.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,636 +488,666 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2259615384615385</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1177257525083612</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(13.48, 20.96)]</t>
+          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(83.2, 91.14)]</t>
+          <t>[('0:00:01.980000', '0:00:06.300000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>[('0:00:42.880000', '0:00:45.100000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_212</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_103</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1125</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D', 'A', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_181</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1821946169772257</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'C:maj']]</t>
+          <t>[['D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(11.219991, 14.772644)]</t>
+          <t>[['F:maj/A', 'C:7', 'F:maj', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(10.54, 12.72)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:01:05.280000', '0:01:14.480000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:16.800000', '0:00:20.080000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_6</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1769041769041769</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj'], ['A:maj/E', 'E:7', 'A:maj'], ['A:maj', 'A:maj', 'E:7/G#']]</t>
-        </is>
+          <t>schubert-winterreise_28</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_44</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1613636363636363</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Eb'], ['Eb', 'Bb:7', 'Eb'], ['Eb', 'Eb', 'Bb:7']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj'], ['A:maj', 'A:maj', 'E:7/G#']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(9.24, 16.18), (21.78, 25.3), (10.3, 17.72)]</t>
+          <t>[['A#/F', 'F:7', 'A#'], ['A#', 'A#/F', 'F:7']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(175.57, 179.38), (14.3, 15.21), (200.58, 201.51)]</t>
+          <t>[('0:00:15.300000', '0:00:17.780000'), ('0:00:06.460000', '0:00:12.080000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
+          <t>[('0:04:31.220000', '0:04:35.780000'), ('0:04:29.700000', '0:04:32.540000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_99</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_182</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.3833333333333333</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
-        </is>
+          <t>isophonics_252</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_160</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1369047619047619</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>[['C:min', 'G:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(75.8, 79.6)]</t>
+          <t>[['D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(154.02, 159.24)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:07.523000', '0:00:10.397000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:10.820000', '0:00:17.080000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_180</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_297</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.07435740514075886</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F', 'F:7', 'Bb'], ['F', 'C', 'F']]</t>
-        </is>
+          <t>isophonics_205</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_227</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.05363805970149253</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['G', 'G:7', 'C'], ['G', 'D', 'G']]</t>
+          <t>[['A:min', 'A:min/b7', 'A:min/6'], ['E', 'A:min', 'A:min/b7']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(17.737518, 22.996837), (0.440395, 5.558652)]</t>
+          <t>[['A:min', 'A:min', 'A:min/b3'], ['E', 'A:min', 'A:min/b3']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(51.641107, 57.139232), (0.421247, 3.083177)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+          <t>[('0:00:00.060000', '0:00:06.451609'), ('0:00:14.868843', '0:00:21.242721')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:12.951496', '0:00:17.038208'), ('0:00:53.795396', '0:00:59.623605')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:389QX9Q1eUOEZ19vtzzI9O</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_97</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_46</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1238738738738739</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
-        </is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3794871794871795</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(69.36, 73.2)]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(28.921995, 33.101587)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:00:29.020000', '0:00:40.820000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:01:08.080000', '0:01:27.320000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
-        </is>
+          <t>isophonics_107</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.65</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min']]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(49.06, 59.7)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(27.52, 38.5)]</t>
+          <t>[('0:00:15.027029', '0:00:21.737596')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_102</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(13.72, 22.2)]</t>
+          <t>[['A/3', 'E:7', 'A']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(6.76, 12.96)]</t>
+          <t>[('0:00:16.840000', '0:00:19.460000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:58.557000', '0:01:02.834000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_147</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_31</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1671826625386997</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'E'], ['A', 'B', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4875</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G'], ['C', 'D', 'G']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(19.435, 32.669), (12.971, 19.435)]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(17.581738, 30.271443), (43.100468, 51.657021)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:02:12.300000', '0:02:16.560000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:55.580000', '0:01:02.320000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_39</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.114353782013103</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7']]</t>
-        </is>
+          <t>schubert-winterreise_136</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'Ab', 'Eb:7']]</t>
+          <t>[['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(18.3, 21.32)]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(34.65, 38.79)]</t>
+          <t>[('0:01:17.680000', '0:01:26.540000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:01:02.200000', '0:01:04.500000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_92</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_4</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.135</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F#:7', 'B:7', 'E:7']]</t>
-        </is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb:7', 'Eb:7']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(21.612539, 26.651269)]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(42.1, 48.62)]</t>
+          <t>[('0:00:16.440000', '0:00:45.540000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
+          <t>[('0:00:31.260000', '0:00:45.880000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_2</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1339285714285714</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['D#:maj', 'A#:maj', 'D#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['Eb:maj', 'Bb:maj', 'Eb:maj']]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(0.78, 19.18)]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(217.911, 222.528)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:55.820000', '0:01:01.680000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:01:00.680000', '0:01:06.800000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_179</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2153846153846154</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj/A#'], ['D:min/A', 'A:7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_57</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj/G'], ['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(97.12, 104.1), (131.2, 136.34)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(87.06, 92.42), (36.66, 43.94)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:58.680000', '0:01:01.260000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:23.160000', '0:00:26.040000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_66</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.09980620155038759</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['C:min', 'C:min/G', 'G:7', 'C:min', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_39</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_140</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D:min', 'D:min', 'A:7', 'D:min', 'D:min']]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(22.08, 29.36)]</t>
+          <t>[['C:min', 'G:7/C', 'G:(3,5,b7,b9)/C', 'C:min', 'G:(3,5,b7,b9)/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(13.82, 40.02)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:12.440000', '0:00:38.460000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:13.640000', '0:00:43.660000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_179</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2490842490842491</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['E', 'Eb', 'E', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'A:maj', 'A#:maj', 'A:maj']]</t>
+          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(4.82, 6.84)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(56.7, 61.94)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_124</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_94</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1098901098901099</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min', 'A#:min/C#'], ['F:min/C', 'C', 'F:min/C']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F:7/A#', 'A#:min', 'D#:min/A#'], ['A#:min', 'F:maj', 'A#:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(26.36, 34.36), (48.0, 52.2)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(27.52, 35.76), (15.6, 24.08)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:01:58.780000', '0:02:06.080000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:01:47.100000', '0:01:51.480000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
